--- a/config_7.13/act_ty_zp1_config.xlsx
+++ b/config_7.13/act_ty_zp1_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="80">
   <si>
     <t>line</t>
   </si>
@@ -30,9 +30,6 @@
     <t>item_key|道具key</t>
   </si>
   <si>
-    <t>item_img|道具图片</t>
-  </si>
-  <si>
     <t>box_exchange_id</t>
   </si>
   <si>
@@ -48,9 +45,6 @@
     <t>prop_qdlb_cjq_cjj</t>
   </si>
   <si>
-    <t>act_ty_zp1_cjq_cjj</t>
-  </si>
-  <si>
     <t>config1</t>
   </si>
   <si>
@@ -61,9 +55,6 @@
   </si>
   <si>
     <t>prop_qdlb_cjq</t>
-  </si>
-  <si>
-    <t>act_ty_zp1_cjq</t>
   </si>
   <si>
     <t>config2</t>
@@ -817,10 +808,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -849,6 +840,70 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -866,45 +921,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -919,7 +945,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -927,45 +953,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -980,15 +976,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1025,187 +1016,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1230,6 +1221,45 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1260,60 +1290,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1331,16 +1307,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1349,136 +1340,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1856,22 +1847,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="38.125" customWidth="1"/>
-    <col min="3" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="16" customWidth="1"/>
-    <col min="6" max="6" width="23.125" customWidth="1"/>
-    <col min="7" max="7" width="20.375" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="23.125" customWidth="1"/>
+    <col min="6" max="6" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1890,59 +1881,49 @@
       <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" ht="15.75" spans="1:7">
+    </row>
+    <row r="2" ht="15.75" spans="1:6">
       <c r="A2" s="16">
         <v>1</v>
       </c>
       <c r="B2" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="9">
+        <v>99</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="F2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="9">
-        <v>99</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="16">
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="9">
+        <v>100</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="F3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="9">
-        <v>100</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="3:4">
+    </row>
+    <row r="4" spans="3:3">
       <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1974,22 +1955,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="G1" s="18" t="s">
         <v>19</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" ht="58.5" customHeight="1" spans="1:7">
@@ -2003,13 +1984,13 @@
         <v>1627315199</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -2026,13 +2007,13 @@
         <v>1626105599</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -2065,22 +2046,22 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="27" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="G1" s="3"/>
     </row>
@@ -2089,10 +2070,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="6"/>
@@ -2105,16 +2086,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>36</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>39</v>
       </c>
       <c r="F3" s="12">
         <v>12088</v>
@@ -2126,16 +2107,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>40</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>43</v>
       </c>
       <c r="F4" s="12">
         <v>12089</v>
@@ -2146,16 +2127,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F5" s="12">
         <v>12090</v>
@@ -2166,16 +2147,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F6" s="12">
         <v>12091</v>
@@ -2186,16 +2167,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>50</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>53</v>
       </c>
       <c r="F7" s="12">
         <v>12092</v>
@@ -2235,31 +2216,31 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="38.25" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:9">
@@ -2270,16 +2251,16 @@
         <v>10599</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D2" s="6">
         <v>6</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2288,7 +2269,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:9">
@@ -2299,16 +2280,16 @@
         <v>10600</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D3" s="6">
         <v>5</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -2317,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:9">
@@ -2328,16 +2309,16 @@
         <v>10601</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D4" s="6">
         <v>4</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -2346,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:9">
@@ -2357,16 +2338,16 @@
         <v>10602</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D5" s="6">
         <v>3</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -2375,7 +2356,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:9">
@@ -2386,16 +2367,16 @@
         <v>10603</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D6" s="6">
         <v>2</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -2404,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:9">
@@ -2415,16 +2396,16 @@
         <v>10604</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
@@ -2433,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1"/>
@@ -2473,22 +2454,22 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="27" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="G1" s="3"/>
     </row>
@@ -2497,10 +2478,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="6"/>
@@ -2513,16 +2494,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>36</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>39</v>
       </c>
       <c r="F3" s="12">
         <v>12094</v>
@@ -2534,16 +2515,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>40</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>43</v>
       </c>
       <c r="F4" s="12">
         <v>12095</v>
@@ -2554,16 +2535,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F5" s="12">
         <v>12096</v>
@@ -2574,16 +2555,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F6" s="12">
         <v>12097</v>
@@ -2594,16 +2575,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>50</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>53</v>
       </c>
       <c r="F7" s="12">
         <v>12098</v>
@@ -2639,31 +2620,31 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="38.25" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:9">
@@ -2674,16 +2655,16 @@
         <v>10605</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D2" s="6">
         <v>6</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2692,7 +2673,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:9">
@@ -2703,16 +2684,16 @@
         <v>10606</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D3" s="6">
         <v>5</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -2721,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:9">
@@ -2732,16 +2713,16 @@
         <v>10607</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D4" s="6">
         <v>4</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -2750,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:9">
@@ -2761,16 +2742,16 @@
         <v>10608</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D5" s="6">
         <v>3</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -2779,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:9">
@@ -2790,16 +2771,16 @@
         <v>10609</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D6" s="6">
         <v>2</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -2808,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:9">
@@ -2819,16 +2800,16 @@
         <v>10610</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
@@ -2837,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1"/>

--- a/config_7.13/act_ty_zp1_config.xlsx
+++ b/config_7.13/act_ty_zp1_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="779"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="779" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="platform_channel|区分平台或渠道" sheetId="8" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="86">
   <si>
     <t>line</t>
   </si>
@@ -743,64 +743,82 @@
     <t>498元礼包</t>
   </si>
   <si>
+    <t>"ty_icon_jb_498y","ty_icon_yxb_5","act_ty_zp1_cjq_cjj",</t>
+  </si>
+  <si>
+    <t>"5000万金币","100万小游戏币","抽奖券*50",</t>
+  </si>
+  <si>
+    <t>"","","可用于抽奖"</t>
+  </si>
+  <si>
+    <t>198元礼包</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_198y","ty_icon_yxb_4","act_ty_zp1_cjq_cjj",</t>
+  </si>
+  <si>
+    <t>"1980万金币","40万小游戏币","抽奖券*30",</t>
+  </si>
+  <si>
+    <t>98元礼包</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_98y","ty_icon_yxb_2","act_ty_zp1_cjq_cjj",</t>
+  </si>
+  <si>
+    <t>"980万金币","18万小游戏币","抽奖券*15",</t>
+  </si>
+  <si>
+    <t>48元礼包</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_50y","ty_icon_yxb_2","act_ty_zp1_cjq_cjj",</t>
+  </si>
+  <si>
+    <t>"480万金币","8万小游戏币","抽奖券*8",</t>
+  </si>
+  <si>
+    <t>20元礼包</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_30y","ty_icon_yxb_3","act_ty_zp1_cjq_cjj",</t>
+  </si>
+  <si>
+    <t>"200万金币","2万小游戏币","抽奖券*4",</t>
+  </si>
+  <si>
+    <t>6元礼包</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_6y","ty_icon_yxb_3","act_ty_zp1_cjq_cjj",</t>
+  </si>
+  <si>
+    <t>"60万金币","5000小游戏币","抽奖券*1",</t>
+  </si>
+  <si>
+    <t>cjlb_Iphone12_1</t>
+  </si>
+  <si>
+    <t>Iphone12</t>
+  </si>
+  <si>
     <t>"ty_icon_jb_498y","ty_icon_yxb_5","act_ty_zp1_cjq",</t>
   </si>
   <si>
-    <t>"5000万金币","100万小游戏币","抽奖券*50",</t>
-  </si>
-  <si>
-    <t>"","","可用于抽奖"</t>
-  </si>
-  <si>
-    <t>198元礼包</t>
-  </si>
-  <si>
     <t>"ty_icon_jb_198y","ty_icon_yxb_4","act_ty_zp1_cjq",</t>
   </si>
   <si>
-    <t>"1980万金币","40万小游戏币","抽奖券*30",</t>
-  </si>
-  <si>
-    <t>98元礼包</t>
-  </si>
-  <si>
     <t>"ty_icon_jb_98y","ty_icon_yxb_2","act_ty_zp1_cjq",</t>
   </si>
   <si>
-    <t>"980万金币","18万小游戏币","抽奖券*15",</t>
-  </si>
-  <si>
-    <t>48元礼包</t>
-  </si>
-  <si>
     <t>"ty_icon_jb_50y","ty_icon_yxb_2","act_ty_zp1_cjq",</t>
   </si>
   <si>
-    <t>"480万金币","8万小游戏币","抽奖券*8",</t>
-  </si>
-  <si>
-    <t>20元礼包</t>
-  </si>
-  <si>
     <t>"ty_icon_jb_30y","ty_icon_yxb_3","act_ty_zp1_cjq",</t>
   </si>
   <si>
-    <t>"200万金币","2万小游戏币","抽奖券*4",</t>
-  </si>
-  <si>
-    <t>6元礼包</t>
-  </si>
-  <si>
     <t>"ty_icon_jb_6y","ty_icon_yxb_3","act_ty_zp1_cjq",</t>
-  </si>
-  <si>
-    <t>"60万金币","5000小游戏币","抽奖券*1",</t>
-  </si>
-  <si>
-    <t>cjlb_Iphone12_1</t>
-  </si>
-  <si>
-    <t>Iphone12</t>
   </si>
 </sst>
 </file>
@@ -808,10 +826,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -848,112 +866,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -969,7 +882,114 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -983,10 +1003,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1016,31 +1034,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1052,151 +1208,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1226,6 +1244,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1243,8 +1285,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1260,17 +1302,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1301,24 +1332,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1328,148 +1346,148 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1849,7 +1867,7 @@
   <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -2197,8 +2215,8 @@
   <sheetPr/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2661,7 +2679,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>61</v>
@@ -2690,7 +2708,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>65</v>
@@ -2719,7 +2737,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>68</v>
@@ -2748,7 +2766,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>71</v>
@@ -2777,7 +2795,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>74</v>
@@ -2806,7 +2824,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>77</v>
